--- a/integtests/src/test/resources/org/isisaddons/module/excel/integtests/demo/toDoItems-updated.xlsx
+++ b/integtests/src/test/resources/org/isisaddons/module/excel/integtests/demo/toDoItems-updated.xlsx
@@ -1,13 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\isisaddons\isis-module-excel\integtests\src\test\resources\org\isisaddons\module\excel\integtests\demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="132" yWindow="552" windowWidth="21756" windowHeight="9468"/>
+    <workbookView xWindow="135" yWindow="555" windowWidth="21750" windowHeight="9465"/>
   </bookViews>
   <sheets>
-    <sheet name="ExcelModuleDemoToDoItemBulkUpda" sheetId="1" r:id="rId1"/>
+    <sheet name="line-items" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -19,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -33,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
@@ -154,6 +159,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -184,6 +192,49 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -249,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,9 +333,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,6 +385,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,16 +585,16 @@
       <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -564,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
